--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -399,13 +399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,7 +439,7 @@
         <v>3600000</v>
       </c>
       <c r="C3">
-        <v>10694569522.072659</v>
+        <v>10694569522.072701</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
